--- a/biology/Médecine/Johann_Christian_Senckenberg/Johann_Christian_Senckenberg.xlsx
+++ b/biology/Médecine/Johann_Christian_Senckenberg/Johann_Christian_Senckenberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Johann Christian Senckenberg est un médecin et scientifique allemand, né le 28 février 1707 à Francfort-sur-le-Main, mort le 15 novembre 1772, célèbre pour ses recherches en botanique[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Johann Christian Senckenberg est un médecin et scientifique allemand, né le 28 février 1707 à Francfort-sur-le-Main, mort le 15 novembre 1772, célèbre pour ses recherches en botanique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il naît à Francfort, Hasengasse, le deuxième fils de Johann Hartmann Senckenberg (1655–1730), physicien -c'est-à-dire médecin - de la ville (Physikus primarius), qui l'a de sa deuxième épouse, Anna Margaretha née Raumburger (1682–1740)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il naît à Francfort, Hasengasse, le deuxième fils de Johann Hartmann Senckenberg (1655–1730), physicien -c'est-à-dire médecin - de la ville (Physikus primarius), qui l'a de sa deuxième épouse, Anna Margaretha née Raumburger (1682–1740).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Honneur</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'astéroïde (207687) Senckenberg a été nommé en son honneur[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'astéroïde (207687) Senckenberg a été nommé en son honneur.
 </t>
         </is>
       </c>
